--- a/Code/Results/Cases/Case_3_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8020726627634645</v>
+        <v>0.2928702470674125</v>
       </c>
       <c r="C2">
-        <v>0.09794241017415573</v>
+        <v>0.04022481641014508</v>
       </c>
       <c r="D2">
-        <v>0.2562991132177217</v>
+        <v>0.3101056510207769</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6295673428229449</v>
+        <v>1.227379493136226</v>
       </c>
       <c r="G2">
-        <v>0.318069170284268</v>
+        <v>0.5897553890308203</v>
       </c>
       <c r="H2">
-        <v>0.2888051066634318</v>
+        <v>0.7251471904914908</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2007150597801797</v>
+        <v>0.3102659089815063</v>
       </c>
       <c r="K2">
-        <v>0.8038283827148973</v>
+        <v>0.2565142136828911</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3940104492828453</v>
+        <v>0.2585865407620602</v>
       </c>
       <c r="N2">
-        <v>0.769162961814251</v>
+        <v>1.574638704693657</v>
       </c>
       <c r="O2">
-        <v>1.227069652602168</v>
+        <v>2.609909659457458</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6976514899558026</v>
+        <v>0.2616281610741282</v>
       </c>
       <c r="C3">
-        <v>0.08927100674969068</v>
+        <v>0.03733829473171824</v>
       </c>
       <c r="D3">
-        <v>0.2304194554927506</v>
+        <v>0.3046319723753612</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6076588716512532</v>
+        <v>1.229998089562862</v>
       </c>
       <c r="G3">
-        <v>0.3098791444297291</v>
+        <v>0.592246784886818</v>
       </c>
       <c r="H3">
-        <v>0.2901082004451752</v>
+        <v>0.7296350741670992</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.18634906180597</v>
+        <v>0.3085395197972147</v>
       </c>
       <c r="K3">
-        <v>0.7016701887266095</v>
+        <v>0.225078018016788</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3444942924974299</v>
+        <v>0.2454924147735937</v>
       </c>
       <c r="N3">
-        <v>0.8035415693866934</v>
+        <v>1.589794889120018</v>
       </c>
       <c r="O3">
-        <v>1.212113225293734</v>
+        <v>2.624353282935544</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6335749900758572</v>
+        <v>0.2424630465902169</v>
       </c>
       <c r="C4">
-        <v>0.08393489488911143</v>
+        <v>0.03555506210097548</v>
       </c>
       <c r="D4">
-        <v>0.2147219758637959</v>
+        <v>0.3014027707341427</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5952302701774386</v>
+        <v>1.232202206187594</v>
       </c>
       <c r="G4">
-        <v>0.3055101812243777</v>
+        <v>0.5941175558829528</v>
       </c>
       <c r="H4">
-        <v>0.2913314561066187</v>
+        <v>0.7326613133573545</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1778016386470114</v>
+        <v>0.3076347288732464</v>
       </c>
       <c r="K4">
-        <v>0.6389056596306375</v>
+        <v>0.2057429455475841</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3142568639465466</v>
+        <v>0.2375511242076769</v>
       </c>
       <c r="N4">
-        <v>0.82557916227824</v>
+        <v>1.599591373639397</v>
       </c>
       <c r="O4">
-        <v>1.205206067647694</v>
+        <v>2.634503127322134</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6074662333756748</v>
+        <v>0.234658061941019</v>
       </c>
       <c r="C5">
-        <v>0.0817570693222649</v>
+        <v>0.03482569102951771</v>
       </c>
       <c r="D5">
-        <v>0.2083705335573143</v>
+        <v>0.3001200965987891</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5904122678495582</v>
+        <v>1.233250505642843</v>
       </c>
       <c r="G5">
-        <v>0.3038884668137669</v>
+        <v>0.5949656819441671</v>
       </c>
       <c r="H5">
-        <v>0.2919332011798232</v>
+        <v>0.7339626691662673</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1743835392663513</v>
+        <v>0.3073050980170322</v>
       </c>
       <c r="K5">
-        <v>0.6133128317759429</v>
+        <v>0.1978559223284719</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3019717628857563</v>
+        <v>0.2343399884964299</v>
       </c>
       <c r="N5">
-        <v>0.8347883086211922</v>
+        <v>1.603706905703778</v>
       </c>
       <c r="O5">
-        <v>1.202941783841922</v>
+        <v>2.638961678269354</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6031308810913742</v>
+        <v>0.2333623646482295</v>
       </c>
       <c r="C6">
-        <v>0.08139523323850995</v>
+        <v>0.03470441858616624</v>
       </c>
       <c r="D6">
-        <v>0.2073185371456105</v>
+        <v>0.2999091221197574</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5896268452020195</v>
+        <v>1.23343364566481</v>
       </c>
       <c r="G6">
-        <v>0.3036285603252011</v>
+        <v>0.5951116934266309</v>
       </c>
       <c r="H6">
-        <v>0.2920392675854018</v>
+        <v>0.734182876046674</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1738197901169301</v>
+        <v>0.3072527247303611</v>
       </c>
       <c r="K6">
-        <v>0.6090620414169052</v>
+        <v>0.1965458304101304</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2999339246270694</v>
+        <v>0.2338082986057373</v>
       </c>
       <c r="N6">
-        <v>0.8363311492806247</v>
+        <v>1.604397739984472</v>
       </c>
       <c r="O6">
-        <v>1.202598422973892</v>
+        <v>2.639721495387846</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6332228750275135</v>
+        <v>0.2423577650912421</v>
       </c>
       <c r="C7">
-        <v>0.08390553783433319</v>
+        <v>0.03554523636988449</v>
       </c>
       <c r="D7">
-        <v>0.2146361381779514</v>
+        <v>0.3013853373149544</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5951643074473907</v>
+        <v>1.232215735939349</v>
       </c>
       <c r="G7">
-        <v>0.3054876770807553</v>
+        <v>0.5941286467038083</v>
       </c>
       <c r="H7">
-        <v>0.2913391574202393</v>
+        <v>0.7326785879000894</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.177755282361737</v>
+        <v>0.3076301250644562</v>
       </c>
       <c r="K7">
-        <v>0.6385605773213285</v>
+        <v>0.2056366094058291</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3140910395224026</v>
+        <v>0.2375077161712298</v>
       </c>
       <c r="N7">
-        <v>0.8257024406449833</v>
+        <v>1.599646377510648</v>
       </c>
       <c r="O7">
-        <v>1.205173330306877</v>
+        <v>2.634561951236307</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7660560458740235</v>
+        <v>0.2820946121734664</v>
       </c>
       <c r="C8">
-        <v>0.09495475163804201</v>
+        <v>0.03923183493475335</v>
       </c>
       <c r="D8">
-        <v>0.2473339160372205</v>
+        <v>0.3081910854831165</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6217944165734295</v>
+        <v>1.228158720962256</v>
       </c>
       <c r="G8">
-        <v>0.3151038739480043</v>
+        <v>0.5905436458113869</v>
       </c>
       <c r="H8">
-        <v>0.2891646526493616</v>
+        <v>0.7266384844231908</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1957026509322972</v>
+        <v>0.3096384616568244</v>
       </c>
       <c r="K8">
-        <v>0.7686086048158387</v>
+        <v>0.2456821809446552</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3768999347492894</v>
+        <v>0.2540513597385043</v>
       </c>
       <c r="N8">
-        <v>0.7808208547044622</v>
+        <v>1.579762772711874</v>
       </c>
       <c r="O8">
-        <v>1.221426776860355</v>
+        <v>2.614623976614709</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02718121611278</v>
+        <v>0.3601395995491146</v>
       </c>
       <c r="C9">
-        <v>0.1165459429243612</v>
+        <v>0.04637287521481426</v>
       </c>
       <c r="D9">
-        <v>0.3131310486167251</v>
+        <v>0.3225763672660662</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6826367327075786</v>
+        <v>1.224928133159075</v>
       </c>
       <c r="G9">
-        <v>0.3395379538304937</v>
+        <v>0.586219417513405</v>
       </c>
       <c r="H9">
-        <v>0.2884067555679906</v>
+        <v>0.7169380578896209</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2332427172643605</v>
+        <v>0.3148068691886152</v>
       </c>
       <c r="K9">
-        <v>1.02362060766896</v>
+        <v>0.3239301414819522</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.501614781260642</v>
+        <v>0.2872674146697989</v>
       </c>
       <c r="N9">
-        <v>0.7004100839350222</v>
+        <v>1.544660931138859</v>
       </c>
       <c r="O9">
-        <v>1.27239705644223</v>
+        <v>2.585686036587859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.219928375356005</v>
+        <v>0.4175332327528736</v>
       </c>
       <c r="C10">
-        <v>0.1323903727192288</v>
+        <v>0.05156343437006683</v>
       </c>
       <c r="D10">
-        <v>0.3627142923125604</v>
+        <v>0.3337728740830386</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7333282705889701</v>
+        <v>1.225428660442986</v>
       </c>
       <c r="G10">
-        <v>0.3613893732549798</v>
+        <v>0.5846926671792829</v>
       </c>
       <c r="H10">
-        <v>0.2902048587121584</v>
+        <v>0.7111139291148447</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2625132602488236</v>
+        <v>0.3193527662455722</v>
       </c>
       <c r="K10">
-        <v>1.211426546086187</v>
+        <v>0.3812280201049134</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5945339851420073</v>
+        <v>0.3121350182856446</v>
       </c>
       <c r="N10">
-        <v>0.6462987072143385</v>
+        <v>1.521239082146819</v>
       </c>
       <c r="O10">
-        <v>1.32300315931505</v>
+        <v>2.570611902147562</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.307930098076213</v>
+        <v>0.4436509051968187</v>
       </c>
       <c r="C11">
-        <v>0.139601178848622</v>
+        <v>0.05391218693135613</v>
       </c>
       <c r="D11">
-        <v>0.385592385076535</v>
+        <v>0.3390015678210148</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7578623810864826</v>
+        <v>1.226279145521943</v>
       </c>
       <c r="G11">
-        <v>0.3722940930104528</v>
+        <v>0.5843566341307138</v>
       </c>
       <c r="H11">
-        <v>0.2915852228415332</v>
+        <v>0.7087463582228821</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.276257316015375</v>
+        <v>0.3215831715872781</v>
       </c>
       <c r="K11">
-        <v>1.297070641991212</v>
+        <v>0.4072490497424042</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6371680827783592</v>
+        <v>0.3235470679448866</v>
       </c>
       <c r="N11">
-        <v>0.6228380707826471</v>
+        <v>1.511097130797134</v>
       </c>
       <c r="O11">
-        <v>1.349237758100941</v>
+        <v>2.565096212244384</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.34131043778487</v>
+        <v>0.4535418281062107</v>
       </c>
       <c r="C12">
-        <v>0.1423327500703522</v>
+        <v>0.05479976107154982</v>
       </c>
       <c r="D12">
-        <v>0.3943065540370299</v>
+        <v>0.3410008711612704</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7673799788571927</v>
+        <v>1.22669062314354</v>
       </c>
       <c r="G12">
-        <v>0.3765724488588802</v>
+        <v>0.5842809404880143</v>
       </c>
       <c r="H12">
-        <v>0.2921933237672079</v>
+        <v>0.7078902776471665</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2815288578917006</v>
+        <v>0.3224510933164737</v>
       </c>
       <c r="K12">
-        <v>1.329541381059698</v>
+        <v>0.4170957536605613</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6533720697369247</v>
+        <v>0.327882650941028</v>
       </c>
       <c r="N12">
-        <v>0.6141272040082093</v>
+        <v>1.507330340367446</v>
       </c>
       <c r="O12">
-        <v>1.359665642863916</v>
+        <v>2.563200343009328</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.33411872795881</v>
+        <v>0.4514116176269738</v>
       </c>
       <c r="C13">
-        <v>0.1417444038090139</v>
+        <v>0.05460868915645278</v>
       </c>
       <c r="D13">
-        <v>0.392427473138099</v>
+        <v>0.3405694290028976</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7653198456163608</v>
+        <v>1.226598029441803</v>
       </c>
       <c r="G13">
-        <v>0.3756442320805746</v>
+        <v>0.5842949495009293</v>
       </c>
       <c r="H13">
-        <v>0.2920584859070914</v>
+        <v>0.7080728511333803</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2803904705086779</v>
+        <v>0.3222631345962981</v>
       </c>
       <c r="K13">
-        <v>1.322546334783453</v>
+        <v>0.4149754053668744</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6498794950146021</v>
+        <v>0.3269482828927437</v>
       </c>
       <c r="N13">
-        <v>0.6159954260352567</v>
+        <v>1.508138305985057</v>
       </c>
       <c r="O13">
-        <v>1.357397348095674</v>
+        <v>2.563600079317297</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.31067513695362</v>
+        <v>0.4444646260709249</v>
       </c>
       <c r="C14">
-        <v>0.1398258835921524</v>
+        <v>0.05398524553696404</v>
       </c>
       <c r="D14">
-        <v>0.3863082622993375</v>
+        <v>0.3391656655716702</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7586407593882285</v>
+        <v>1.226311206777225</v>
       </c>
       <c r="G14">
-        <v>0.3726430290534779</v>
+        <v>0.5843493735147831</v>
       </c>
       <c r="H14">
-        <v>0.2916335135475663</v>
+        <v>0.7086751172984265</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2766896352120511</v>
+        <v>0.3216541090097707</v>
       </c>
       <c r="K14">
-        <v>1.299741190564333</v>
+        <v>0.4080592853951543</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6384999631447386</v>
+        <v>0.3239034780245191</v>
       </c>
       <c r="N14">
-        <v>0.622117909912367</v>
+        <v>1.510785756619592</v>
       </c>
       <c r="O14">
-        <v>1.350085591752901</v>
+        <v>2.564936374570095</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.296322860330804</v>
+        <v>0.440209470926078</v>
       </c>
       <c r="C15">
-        <v>0.138650881308422</v>
+        <v>0.05360312606339335</v>
       </c>
       <c r="D15">
-        <v>0.3825668098826043</v>
+        <v>0.3383083302102818</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7545796590212319</v>
+        <v>1.226147160244935</v>
       </c>
       <c r="G15">
-        <v>0.3708244226320545</v>
+        <v>0.5843894238524712</v>
       </c>
       <c r="H15">
-        <v>0.2913844642929604</v>
+        <v>0.7090492908594968</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2744316510879088</v>
+        <v>0.3212840982924945</v>
       </c>
       <c r="K15">
-        <v>1.285777759636773</v>
+        <v>0.4038220476461163</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6315376178103378</v>
+        <v>0.3220402745233386</v>
       </c>
       <c r="N15">
-        <v>0.6258908770529104</v>
+        <v>1.512417000917337</v>
       </c>
       <c r="O15">
-        <v>1.345672147660821</v>
+        <v>2.565779999071111</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.214184533840694</v>
+        <v>0.4158265142455946</v>
       </c>
       <c r="C16">
-        <v>0.1319192378840484</v>
+        <v>0.05140968238080745</v>
       </c>
       <c r="D16">
-        <v>0.3612260105385019</v>
+        <v>0.3334338771721548</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7317558422226185</v>
+        <v>1.225385599519569</v>
       </c>
       <c r="G16">
-        <v>0.3606969965284321</v>
+        <v>0.5847218418777373</v>
       </c>
       <c r="H16">
-        <v>0.2901263453226903</v>
+        <v>0.7112743216650159</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2616241280089469</v>
+        <v>0.3192102691591145</v>
       </c>
       <c r="K16">
-        <v>1.205834484242729</v>
+        <v>0.3795265501803158</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5917556680079912</v>
+        <v>0.3113911985531601</v>
       </c>
       <c r="N16">
-        <v>0.6478557517213925</v>
+        <v>1.52191220159135</v>
       </c>
       <c r="O16">
-        <v>1.321355965779361</v>
+        <v>2.570999351914367</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.163884197482986</v>
+        <v>0.4008702651589999</v>
       </c>
       <c r="C17">
-        <v>0.1277907629459776</v>
+        <v>0.05006084491400031</v>
       </c>
       <c r="D17">
-        <v>0.3482197277578649</v>
+        <v>0.3304781155024585</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7181422047439483</v>
+        <v>1.225077819831313</v>
       </c>
       <c r="G17">
-        <v>0.3547382886657857</v>
+        <v>0.5850175912735835</v>
       </c>
       <c r="H17">
-        <v>0.2895017012777004</v>
+        <v>0.71271145063983</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2538806163602771</v>
+        <v>0.317979618594876</v>
       </c>
       <c r="K17">
-        <v>1.15685189311958</v>
+        <v>0.3646103661802442</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5674489330954202</v>
+        <v>0.3048836864231532</v>
       </c>
       <c r="N17">
-        <v>0.6616312093585908</v>
+        <v>1.527868538544823</v>
       </c>
       <c r="O17">
-        <v>1.307283547153475</v>
+        <v>2.574544789797216</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.134982265731423</v>
+        <v>0.3922687094544415</v>
       </c>
       <c r="C18">
-        <v>0.1254164291361377</v>
+        <v>0.04928385993262907</v>
       </c>
       <c r="D18">
-        <v>0.3407689295090961</v>
+        <v>0.3287907881593668</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.710449812592671</v>
+        <v>1.224959421672125</v>
       </c>
       <c r="G18">
-        <v>0.3514011195586306</v>
+        <v>0.5852214414012451</v>
       </c>
       <c r="H18">
-        <v>0.2891950721176499</v>
+        <v>0.7135645824540404</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2494667710838456</v>
+        <v>0.3172870745978713</v>
       </c>
       <c r="K18">
-        <v>1.12869761864917</v>
+        <v>0.3560268577093098</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5535022268829124</v>
+        <v>0.3011501318212169</v>
       </c>
       <c r="N18">
-        <v>0.6696627447405969</v>
+        <v>1.531342729083365</v>
       </c>
       <c r="O18">
-        <v>1.299489964544392</v>
+        <v>2.576710317686405</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.125201340291284</v>
+        <v>0.3893565395357825</v>
       </c>
       <c r="C19">
-        <v>0.1246125483999094</v>
+        <v>0.04902058703557088</v>
       </c>
       <c r="D19">
-        <v>0.3382512532569564</v>
+        <v>0.3282216823254345</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7078685256821871</v>
+        <v>1.224929407843177</v>
       </c>
       <c r="G19">
-        <v>0.3502863861940924</v>
+        <v>0.5852962567990332</v>
       </c>
       <c r="H19">
-        <v>0.2891001621939822</v>
+        <v>0.7138579972672687</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2479790354011442</v>
+        <v>0.3170552191657379</v>
       </c>
       <c r="K19">
-        <v>1.119168102873459</v>
+        <v>0.3531199396820739</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5487857273246703</v>
+        <v>0.2998876352305047</v>
       </c>
       <c r="N19">
-        <v>0.6724004681809941</v>
+        <v>1.532527319222549</v>
       </c>
       <c r="O19">
-        <v>1.29690187926505</v>
+        <v>2.577465221542354</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.169235631786677</v>
+        <v>0.4024622961258899</v>
       </c>
       <c r="C20">
-        <v>0.1282302158357709</v>
+        <v>0.05020455239272792</v>
       </c>
       <c r="D20">
-        <v>0.3496011256667089</v>
+        <v>0.3307914430479144</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7195770304084164</v>
+        <v>1.225104516674783</v>
       </c>
       <c r="G20">
-        <v>0.3553632033692651</v>
+        <v>0.5849826159519438</v>
       </c>
       <c r="H20">
-        <v>0.2895627148315043</v>
+        <v>0.7125557201745352</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2547007472520022</v>
+        <v>0.3181090409378271</v>
       </c>
       <c r="K20">
-        <v>1.162064121885606</v>
+        <v>0.3661986492588198</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5700328707227769</v>
+        <v>0.3055754516818894</v>
       </c>
       <c r="N20">
-        <v>0.6601535341433795</v>
+        <v>1.527229481185563</v>
       </c>
       <c r="O20">
-        <v>1.30875025873587</v>
+        <v>2.57415430263498</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.317559485380997</v>
+        <v>0.4465051106984674</v>
       </c>
       <c r="C21">
-        <v>0.1403893678564714</v>
+        <v>0.0541684166252594</v>
       </c>
       <c r="D21">
-        <v>0.388104209883636</v>
+        <v>0.3395774620533984</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7605962819365857</v>
+        <v>1.226393027899533</v>
       </c>
       <c r="G21">
-        <v>0.3735204268555634</v>
+        <v>0.5843319886531191</v>
       </c>
       <c r="H21">
-        <v>0.2917559835051975</v>
+        <v>0.7084971193618372</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2777747988015591</v>
+        <v>0.3218323621695021</v>
       </c>
       <c r="K21">
-        <v>1.306438476520128</v>
+        <v>0.4100909090732898</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6418407384333804</v>
+        <v>0.3247974306270862</v>
       </c>
       <c r="N21">
-        <v>0.6203148297133865</v>
+        <v>1.510006134633931</v>
       </c>
       <c r="O21">
-        <v>1.352219581970218</v>
+        <v>2.564538640601398</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.414829206577991</v>
+        <v>0.4752936096700182</v>
       </c>
       <c r="C22">
-        <v>0.1483421675256977</v>
+        <v>0.05674823662047856</v>
       </c>
       <c r="D22">
-        <v>0.4135661252973648</v>
+        <v>0.3454321187944345</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.788735883305165</v>
+        <v>1.227756272174517</v>
       </c>
       <c r="G22">
-        <v>0.3862607944860628</v>
+        <v>0.5842072681480772</v>
       </c>
       <c r="H22">
-        <v>0.293689408234826</v>
+        <v>0.7060804334306567</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2932480648475746</v>
+        <v>0.3244016479738292</v>
       </c>
       <c r="K22">
-        <v>1.401028433696865</v>
+        <v>0.4387365875436728</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6891209873829709</v>
+        <v>0.3374421045714797</v>
       </c>
       <c r="N22">
-        <v>0.5952908740112477</v>
+        <v>1.499179539565858</v>
       </c>
       <c r="O22">
-        <v>1.383521183642245</v>
+        <v>2.559377996198066</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.362880722017167</v>
+        <v>0.459928470876207</v>
       </c>
       <c r="C23">
-        <v>0.1440968574497674</v>
+        <v>0.05537234428354054</v>
       </c>
       <c r="D23">
-        <v>0.3999478486459793</v>
+        <v>0.3422971362851399</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7735902309186287</v>
+        <v>1.226981046088653</v>
       </c>
       <c r="G23">
-        <v>0.3793775228517973</v>
+        <v>0.5842463367601454</v>
       </c>
       <c r="H23">
-        <v>0.2926101889213015</v>
+        <v>0.7073487052317091</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2849518847781525</v>
+        <v>0.323017953738173</v>
       </c>
       <c r="K23">
-        <v>1.350519555615875</v>
+        <v>0.4234517358918879</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6638522242200864</v>
+        <v>0.3306859814279619</v>
       </c>
       <c r="N23">
-        <v>0.6085514941325592</v>
+        <v>1.504918560764173</v>
       </c>
       <c r="O23">
-        <v>1.366539481746315</v>
+        <v>2.562029545882041</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166816197996269</v>
+        <v>0.4017425482554131</v>
       </c>
       <c r="C24">
-        <v>0.1280315417750586</v>
+        <v>0.05013958697323062</v>
       </c>
       <c r="D24">
-        <v>0.3489765128751969</v>
+        <v>0.3306497503387078</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7189279286349759</v>
+        <v>1.225092264647948</v>
       </c>
       <c r="G24">
-        <v>0.3550804043230471</v>
+        <v>0.5849983229490618</v>
       </c>
       <c r="H24">
-        <v>0.2895349674567029</v>
+        <v>0.7126260420989894</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2543298481038363</v>
+        <v>0.3180504824528896</v>
       </c>
       <c r="K24">
-        <v>1.1597076537779</v>
+        <v>0.3654806113422353</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5688645871991156</v>
+        <v>0.3052626806035263</v>
       </c>
       <c r="N24">
-        <v>0.6608212432794982</v>
+        <v>1.52751824385367</v>
       </c>
       <c r="O24">
-        <v>1.308086236189268</v>
+        <v>2.574330445627368</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9564207926641188</v>
+        <v>0.3390154454519063</v>
       </c>
       <c r="C25">
-        <v>0.1107103665087834</v>
+        <v>0.04445071153891433</v>
       </c>
       <c r="D25">
-        <v>0.2951296841402637</v>
+        <v>0.3185741192665148</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6651808784603332</v>
+        <v>1.225296904603596</v>
       </c>
       <c r="G25">
-        <v>0.3322808907113171</v>
+        <v>0.5870994774192297</v>
       </c>
       <c r="H25">
-        <v>0.2882147004715208</v>
+        <v>0.7193331838681871</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2228100828259301</v>
+        <v>0.313277115092923</v>
       </c>
       <c r="K25">
-        <v>0.9545890248465696</v>
+        <v>0.3027941149423725</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4676757757284307</v>
+        <v>0.2781995619600579</v>
       </c>
       <c r="N25">
-        <v>0.7213163298257985</v>
+        <v>1.553740884834326</v>
       </c>
       <c r="O25">
-        <v>1.256412261451246</v>
+        <v>2.592427549177359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_232/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_232/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2928702470674125</v>
+        <v>0.8020726627633223</v>
       </c>
       <c r="C2">
-        <v>0.04022481641014508</v>
+        <v>0.09794241017398519</v>
       </c>
       <c r="D2">
-        <v>0.3101056510207769</v>
+        <v>0.2562991132175654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.227379493136226</v>
+        <v>0.6295673428229378</v>
       </c>
       <c r="G2">
-        <v>0.5897553890308203</v>
+        <v>0.3180691702842537</v>
       </c>
       <c r="H2">
-        <v>0.7251471904914908</v>
+        <v>0.2888051066634247</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3102659089815063</v>
+        <v>0.2007150597802081</v>
       </c>
       <c r="K2">
-        <v>0.2565142136828911</v>
+        <v>0.8038283827148973</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2585865407620602</v>
+        <v>0.3940104492828453</v>
       </c>
       <c r="N2">
-        <v>1.574638704693657</v>
+        <v>0.7691629618142422</v>
       </c>
       <c r="O2">
-        <v>2.609909659457458</v>
+        <v>1.22706965260214</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2616281610741282</v>
+        <v>0.6976514899555468</v>
       </c>
       <c r="C3">
-        <v>0.03733829473171824</v>
+        <v>0.08927100674946331</v>
       </c>
       <c r="D3">
-        <v>0.3046319723753612</v>
+        <v>0.2304194554929069</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.229998089562862</v>
+        <v>0.6076588716512745</v>
       </c>
       <c r="G3">
-        <v>0.592246784886818</v>
+        <v>0.3098791444297575</v>
       </c>
       <c r="H3">
-        <v>0.7296350741670992</v>
+        <v>0.2901082004452888</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3085395197972147</v>
+        <v>0.1863490618059416</v>
       </c>
       <c r="K3">
-        <v>0.225078018016788</v>
+        <v>0.7016701887266521</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2454924147735937</v>
+        <v>0.3444942924974228</v>
       </c>
       <c r="N3">
-        <v>1.589794889120018</v>
+        <v>0.8035415693867005</v>
       </c>
       <c r="O3">
-        <v>2.624353282935544</v>
+        <v>1.212113225293805</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2424630465902169</v>
+        <v>0.6335749900760561</v>
       </c>
       <c r="C4">
-        <v>0.03555506210097548</v>
+        <v>0.08393489488889117</v>
       </c>
       <c r="D4">
-        <v>0.3014027707341427</v>
+        <v>0.2147219758637959</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.232202206187594</v>
+        <v>0.5952302701774173</v>
       </c>
       <c r="G4">
-        <v>0.5941175558829528</v>
+        <v>0.3055101812243137</v>
       </c>
       <c r="H4">
-        <v>0.7326613133573545</v>
+        <v>0.2913314561066187</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3076347288732464</v>
+        <v>0.1778016386470398</v>
       </c>
       <c r="K4">
-        <v>0.2057429455475841</v>
+        <v>0.6389056596306517</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2375511242076769</v>
+        <v>0.3142568639465395</v>
       </c>
       <c r="N4">
-        <v>1.599591373639397</v>
+        <v>0.8255791622782382</v>
       </c>
       <c r="O4">
-        <v>2.634503127322134</v>
+        <v>1.20520606764768</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.234658061941019</v>
+        <v>0.6074662333757317</v>
       </c>
       <c r="C5">
-        <v>0.03482569102951771</v>
+        <v>0.08175706932208726</v>
       </c>
       <c r="D5">
-        <v>0.3001200965987891</v>
+        <v>0.208370533557229</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.233250505642843</v>
+        <v>0.5904122678495582</v>
       </c>
       <c r="G5">
-        <v>0.5949656819441671</v>
+        <v>0.303888466813838</v>
       </c>
       <c r="H5">
-        <v>0.7339626691662673</v>
+        <v>0.2919332011798161</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3073050980170322</v>
+        <v>0.1743835392664153</v>
       </c>
       <c r="K5">
-        <v>0.1978559223284719</v>
+        <v>0.6133128317759713</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2343399884964299</v>
+        <v>0.3019717628857563</v>
       </c>
       <c r="N5">
-        <v>1.603706905703778</v>
+        <v>0.8347883086211976</v>
       </c>
       <c r="O5">
-        <v>2.638961678269354</v>
+        <v>1.202941783841936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2333623646482295</v>
+        <v>0.603130881091289</v>
       </c>
       <c r="C6">
-        <v>0.03470441858616624</v>
+        <v>0.08139523323803388</v>
       </c>
       <c r="D6">
-        <v>0.2999091221197574</v>
+        <v>0.2073185371457242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.23343364566481</v>
+        <v>0.5896268452020053</v>
       </c>
       <c r="G6">
-        <v>0.5951116934266309</v>
+        <v>0.303628560325194</v>
       </c>
       <c r="H6">
-        <v>0.734182876046674</v>
+        <v>0.2920392675855226</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3072527247303611</v>
+        <v>0.1738197901168803</v>
       </c>
       <c r="K6">
-        <v>0.1965458304101304</v>
+        <v>0.6090620414170331</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2338082986057373</v>
+        <v>0.2999339246270836</v>
       </c>
       <c r="N6">
-        <v>1.604397739984472</v>
+        <v>0.8363311492805732</v>
       </c>
       <c r="O6">
-        <v>2.639721495387846</v>
+        <v>1.202598422973892</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2423577650912421</v>
+        <v>0.6332228750276556</v>
       </c>
       <c r="C7">
-        <v>0.03554523636988449</v>
+        <v>0.08390553783428345</v>
       </c>
       <c r="D7">
-        <v>0.3013853373149544</v>
+        <v>0.2146361381779798</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.232215735939349</v>
+        <v>0.5951643074473765</v>
       </c>
       <c r="G7">
-        <v>0.5941286467038083</v>
+        <v>0.3054876770807908</v>
       </c>
       <c r="H7">
-        <v>0.7326785879000894</v>
+        <v>0.2913391574202322</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3076301250644562</v>
+        <v>0.177755282361808</v>
       </c>
       <c r="K7">
-        <v>0.2056366094058291</v>
+        <v>0.6385605773213143</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2375077161712298</v>
+        <v>0.3140910395224026</v>
       </c>
       <c r="N7">
-        <v>1.599646377510648</v>
+        <v>0.8257024406450313</v>
       </c>
       <c r="O7">
-        <v>2.634561951236307</v>
+        <v>1.205173330306877</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2820946121734664</v>
+        <v>0.7660560458740804</v>
       </c>
       <c r="C8">
-        <v>0.03923183493475335</v>
+        <v>0.09495475163780043</v>
       </c>
       <c r="D8">
-        <v>0.3081910854831165</v>
+        <v>0.2473339160375758</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.228158720962256</v>
+        <v>0.6217944165734366</v>
       </c>
       <c r="G8">
-        <v>0.5905436458113869</v>
+        <v>0.3151038739479972</v>
       </c>
       <c r="H8">
-        <v>0.7266384844231908</v>
+        <v>0.2891646526493545</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3096384616568244</v>
+        <v>0.1957026509323185</v>
       </c>
       <c r="K8">
-        <v>0.2456821809446552</v>
+        <v>0.7686086048157819</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2540513597385043</v>
+        <v>0.3768999347493036</v>
       </c>
       <c r="N8">
-        <v>1.579762772711874</v>
+        <v>0.7808208547044604</v>
       </c>
       <c r="O8">
-        <v>2.614623976614709</v>
+        <v>1.221426776860255</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3601395995491146</v>
+        <v>1.027181216112524</v>
       </c>
       <c r="C9">
-        <v>0.04637287521481426</v>
+        <v>0.1165459429241338</v>
       </c>
       <c r="D9">
-        <v>0.3225763672660662</v>
+        <v>0.313131048616853</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.224928133159075</v>
+        <v>0.6826367327075786</v>
       </c>
       <c r="G9">
-        <v>0.586219417513405</v>
+        <v>0.3395379538304937</v>
       </c>
       <c r="H9">
-        <v>0.7169380578896209</v>
+        <v>0.2884067555679763</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3148068691886152</v>
+        <v>0.2332427172643321</v>
       </c>
       <c r="K9">
-        <v>0.3239301414819522</v>
+        <v>1.023620607669102</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2872674146697989</v>
+        <v>0.5016147812606491</v>
       </c>
       <c r="N9">
-        <v>1.544660931138859</v>
+        <v>0.7004100839350684</v>
       </c>
       <c r="O9">
-        <v>2.585686036587859</v>
+        <v>1.272397056442216</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4175332327528736</v>
+        <v>1.219928375356119</v>
       </c>
       <c r="C10">
-        <v>0.05156343437006683</v>
+        <v>0.1323903727192288</v>
       </c>
       <c r="D10">
-        <v>0.3337728740830386</v>
+        <v>0.3627142923126314</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.225428660442986</v>
+        <v>0.7333282705889843</v>
       </c>
       <c r="G10">
-        <v>0.5846926671792829</v>
+        <v>0.3613893732548519</v>
       </c>
       <c r="H10">
-        <v>0.7111139291148447</v>
+        <v>0.2902048587121726</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3193527662455722</v>
+        <v>0.2625132602489231</v>
       </c>
       <c r="K10">
-        <v>0.3812280201049134</v>
+        <v>1.211426546086244</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3121350182856446</v>
+        <v>0.5945339851420144</v>
       </c>
       <c r="N10">
-        <v>1.521239082146819</v>
+        <v>0.6462987072143918</v>
       </c>
       <c r="O10">
-        <v>2.570611902147562</v>
+        <v>1.323003159315135</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4436509051968187</v>
+        <v>1.307930098076326</v>
       </c>
       <c r="C11">
-        <v>0.05391218693135613</v>
+        <v>0.1396011788486362</v>
       </c>
       <c r="D11">
-        <v>0.3390015678210148</v>
+        <v>0.3855923850765919</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.226279145521943</v>
+        <v>0.7578623810864684</v>
       </c>
       <c r="G11">
-        <v>0.5843566341307138</v>
+        <v>0.3722940930104528</v>
       </c>
       <c r="H11">
-        <v>0.7087463582228821</v>
+        <v>0.2915852228415332</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3215831715872781</v>
+        <v>0.2762573160153892</v>
       </c>
       <c r="K11">
-        <v>0.4072490497424042</v>
+        <v>1.297070641991326</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3235470679448866</v>
+        <v>0.6371680827783592</v>
       </c>
       <c r="N11">
-        <v>1.511097130797134</v>
+        <v>0.6228380707826382</v>
       </c>
       <c r="O11">
-        <v>2.565096212244384</v>
+        <v>1.349237758100998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4535418281062107</v>
+        <v>1.341310437784813</v>
       </c>
       <c r="C12">
-        <v>0.05479976107154982</v>
+        <v>0.1423327500704943</v>
       </c>
       <c r="D12">
-        <v>0.3410008711612704</v>
+        <v>0.3943065540369162</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.22669062314354</v>
+        <v>0.7673799788571642</v>
       </c>
       <c r="G12">
-        <v>0.5842809404880143</v>
+        <v>0.376572448858866</v>
       </c>
       <c r="H12">
-        <v>0.7078902776471665</v>
+        <v>0.2921933237672079</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3224510933164737</v>
+        <v>0.2815288578917006</v>
       </c>
       <c r="K12">
-        <v>0.4170957536605613</v>
+        <v>1.329541381059869</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.327882650941028</v>
+        <v>0.6533720697369461</v>
       </c>
       <c r="N12">
-        <v>1.507330340367446</v>
+        <v>0.6141272040082022</v>
       </c>
       <c r="O12">
-        <v>2.563200343009328</v>
+        <v>1.359665642863916</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4514116176269738</v>
+        <v>1.334118727958838</v>
       </c>
       <c r="C13">
-        <v>0.05460868915645278</v>
+        <v>0.1417444038085449</v>
       </c>
       <c r="D13">
-        <v>0.3405694290028976</v>
+        <v>0.3924274731382127</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.226598029441803</v>
+        <v>0.7653198456163608</v>
       </c>
       <c r="G13">
-        <v>0.5842949495009293</v>
+        <v>0.3756442320806315</v>
       </c>
       <c r="H13">
-        <v>0.7080728511333803</v>
+        <v>0.2920584859070914</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3222631345962981</v>
+        <v>0.2803904705087348</v>
       </c>
       <c r="K13">
-        <v>0.4149754053668744</v>
+        <v>1.322546334783453</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3269482828927437</v>
+        <v>0.649879495014595</v>
       </c>
       <c r="N13">
-        <v>1.508138305985057</v>
+        <v>0.6159954260353189</v>
       </c>
       <c r="O13">
-        <v>2.563600079317297</v>
+        <v>1.357397348095674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4444646260709249</v>
+        <v>1.310675136953535</v>
       </c>
       <c r="C14">
-        <v>0.05398524553696404</v>
+        <v>0.1398258835920103</v>
       </c>
       <c r="D14">
-        <v>0.3391656655716702</v>
+        <v>0.3863082622993375</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.226311206777225</v>
+        <v>0.7586407593882285</v>
       </c>
       <c r="G14">
-        <v>0.5843493735147831</v>
+        <v>0.3726430290535063</v>
       </c>
       <c r="H14">
-        <v>0.7086751172984265</v>
+        <v>0.2916335135475521</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3216541090097707</v>
+        <v>0.2766896352120938</v>
       </c>
       <c r="K14">
-        <v>0.4080592853951543</v>
+        <v>1.299741190564362</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3239034780245191</v>
+        <v>0.6384999631447457</v>
       </c>
       <c r="N14">
-        <v>1.510785756619592</v>
+        <v>0.6221179099123564</v>
       </c>
       <c r="O14">
-        <v>2.564936374570095</v>
+        <v>1.350085591752901</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.440209470926078</v>
+        <v>1.296322860330918</v>
       </c>
       <c r="C15">
-        <v>0.05360312606339335</v>
+        <v>0.1386508813088909</v>
       </c>
       <c r="D15">
-        <v>0.3383083302102818</v>
+        <v>0.3825668098826043</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.226147160244935</v>
+        <v>0.7545796590212035</v>
       </c>
       <c r="G15">
-        <v>0.5843894238524712</v>
+        <v>0.3708244226319835</v>
       </c>
       <c r="H15">
-        <v>0.7090492908594968</v>
+        <v>0.2913844642929604</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3212840982924945</v>
+        <v>0.2744316510879088</v>
       </c>
       <c r="K15">
-        <v>0.4038220476461163</v>
+        <v>1.285777759636801</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3220402745233386</v>
+        <v>0.6315376178103378</v>
       </c>
       <c r="N15">
-        <v>1.512417000917337</v>
+        <v>0.6258908770529086</v>
       </c>
       <c r="O15">
-        <v>2.565779999071111</v>
+        <v>1.345672147660821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4158265142455946</v>
+        <v>1.214184533840637</v>
       </c>
       <c r="C16">
-        <v>0.05140968238080745</v>
+        <v>0.1319192378842331</v>
       </c>
       <c r="D16">
-        <v>0.3334338771721548</v>
+        <v>0.3612260105384877</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.225385599519569</v>
+        <v>0.7317558422226185</v>
       </c>
       <c r="G16">
-        <v>0.5847218418777373</v>
+        <v>0.3606969965283753</v>
       </c>
       <c r="H16">
-        <v>0.7112743216650159</v>
+        <v>0.290126345322804</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3192102691591145</v>
+        <v>0.2616241280089469</v>
       </c>
       <c r="K16">
-        <v>0.3795265501803158</v>
+        <v>1.205834484242615</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3113911985531601</v>
+        <v>0.5917556680079841</v>
       </c>
       <c r="N16">
-        <v>1.52191220159135</v>
+        <v>0.6478557517214067</v>
       </c>
       <c r="O16">
-        <v>2.570999351914367</v>
+        <v>1.321355965779361</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4008702651589999</v>
+        <v>1.163884197482901</v>
       </c>
       <c r="C17">
-        <v>0.05006084491400031</v>
+        <v>0.1277907629459776</v>
       </c>
       <c r="D17">
-        <v>0.3304781155024585</v>
+        <v>0.3482197277578791</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.225077819831313</v>
+        <v>0.7181422047439412</v>
       </c>
       <c r="G17">
-        <v>0.5850175912735835</v>
+        <v>0.3547382886657715</v>
       </c>
       <c r="H17">
-        <v>0.71271145063983</v>
+        <v>0.2895017012777004</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.317979618594876</v>
+        <v>0.2538806163603624</v>
       </c>
       <c r="K17">
-        <v>0.3646103661802442</v>
+        <v>1.156851893119722</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3048836864231532</v>
+        <v>0.567448933095406</v>
       </c>
       <c r="N17">
-        <v>1.527868538544823</v>
+        <v>0.6616312093585694</v>
       </c>
       <c r="O17">
-        <v>2.574544789797216</v>
+        <v>1.307283547153475</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3922687094544415</v>
+        <v>1.134982265731338</v>
       </c>
       <c r="C18">
-        <v>0.04928385993262907</v>
+        <v>0.1254164291361946</v>
       </c>
       <c r="D18">
-        <v>0.3287907881593668</v>
+        <v>0.3407689295091814</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.224959421672125</v>
+        <v>0.7104498125926639</v>
       </c>
       <c r="G18">
-        <v>0.5852214414012451</v>
+        <v>0.3514011195586306</v>
       </c>
       <c r="H18">
-        <v>0.7135645824540404</v>
+        <v>0.2891950721176499</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3172870745978713</v>
+        <v>0.2494667710838456</v>
       </c>
       <c r="K18">
-        <v>0.3560268577093098</v>
+        <v>1.128697618649198</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3011501318212169</v>
+        <v>0.5535022268828911</v>
       </c>
       <c r="N18">
-        <v>1.531342729083365</v>
+        <v>0.6696627447405898</v>
       </c>
       <c r="O18">
-        <v>2.576710317686405</v>
+        <v>1.299489964544449</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3893565395357825</v>
+        <v>1.125201340291341</v>
       </c>
       <c r="C19">
-        <v>0.04902058703557088</v>
+        <v>0.124612548400151</v>
       </c>
       <c r="D19">
-        <v>0.3282216823254345</v>
+        <v>0.3382512532568995</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.224929407843177</v>
+        <v>0.7078685256821728</v>
       </c>
       <c r="G19">
-        <v>0.5852962567990332</v>
+        <v>0.350286386194135</v>
       </c>
       <c r="H19">
-        <v>0.7138579972672687</v>
+        <v>0.2891001621939822</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3170552191657379</v>
+        <v>0.24797903540113</v>
       </c>
       <c r="K19">
-        <v>0.3531199396820739</v>
+        <v>1.119168102873374</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2998876352305047</v>
+        <v>0.5487857273246561</v>
       </c>
       <c r="N19">
-        <v>1.532527319222549</v>
+        <v>0.6724004681810403</v>
       </c>
       <c r="O19">
-        <v>2.577465221542354</v>
+        <v>1.296901879264993</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4024622961258899</v>
+        <v>1.169235631786648</v>
       </c>
       <c r="C20">
-        <v>0.05020455239272792</v>
+        <v>0.1282302158355577</v>
       </c>
       <c r="D20">
-        <v>0.3307914430479144</v>
+        <v>0.3496011256668226</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.225104516674783</v>
+        <v>0.7195770304084448</v>
       </c>
       <c r="G20">
-        <v>0.5849826159519438</v>
+        <v>0.3553632033692793</v>
       </c>
       <c r="H20">
-        <v>0.7125557201745352</v>
+        <v>0.2895627148315043</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3181090409378271</v>
+        <v>0.2547007472518743</v>
       </c>
       <c r="K20">
-        <v>0.3661986492588198</v>
+        <v>1.162064121885606</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3055754516818894</v>
+        <v>0.5700328707227769</v>
       </c>
       <c r="N20">
-        <v>1.527229481185563</v>
+        <v>0.6601535341433742</v>
       </c>
       <c r="O20">
-        <v>2.57415430263498</v>
+        <v>1.30875025873587</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4465051106984674</v>
+        <v>1.317559485381111</v>
       </c>
       <c r="C21">
-        <v>0.0541684166252594</v>
+        <v>0.1403893678565424</v>
       </c>
       <c r="D21">
-        <v>0.3395774620533984</v>
+        <v>0.3881042098838066</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.226393027899533</v>
+        <v>0.7605962819365999</v>
       </c>
       <c r="G21">
-        <v>0.5843319886531191</v>
+        <v>0.3735204268555492</v>
       </c>
       <c r="H21">
-        <v>0.7084971193618372</v>
+        <v>0.2917559835053112</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3218323621695021</v>
+        <v>0.2777747988015733</v>
       </c>
       <c r="K21">
-        <v>0.4100909090732898</v>
+        <v>1.306438476520043</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3247974306270862</v>
+        <v>0.6418407384333733</v>
       </c>
       <c r="N21">
-        <v>1.510006134633931</v>
+        <v>0.6203148297133172</v>
       </c>
       <c r="O21">
-        <v>2.564538640601398</v>
+        <v>1.352219581970132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4752936096700182</v>
+        <v>1.414829206578133</v>
       </c>
       <c r="C22">
-        <v>0.05674823662047856</v>
+        <v>0.1483421675260104</v>
       </c>
       <c r="D22">
-        <v>0.3454321187944345</v>
+        <v>0.4135661252977059</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.227756272174517</v>
+        <v>0.7887358833051792</v>
       </c>
       <c r="G22">
-        <v>0.5842072681480772</v>
+        <v>0.386260794486077</v>
       </c>
       <c r="H22">
-        <v>0.7060804334306567</v>
+        <v>0.2936894082348118</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3244016479738292</v>
+        <v>0.2932480648475888</v>
       </c>
       <c r="K22">
-        <v>0.4387365875436728</v>
+        <v>1.401028433696951</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3374421045714797</v>
+        <v>0.689120987382978</v>
       </c>
       <c r="N22">
-        <v>1.499179539565858</v>
+        <v>0.5952908740112441</v>
       </c>
       <c r="O22">
-        <v>2.559377996198066</v>
+        <v>1.383521183642216</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.459928470876207</v>
+        <v>1.362880722017138</v>
       </c>
       <c r="C23">
-        <v>0.05537234428354054</v>
+        <v>0.144096857450009</v>
       </c>
       <c r="D23">
-        <v>0.3422971362851399</v>
+        <v>0.3999478486460362</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.226981046088653</v>
+        <v>0.7735902309186287</v>
       </c>
       <c r="G23">
-        <v>0.5842463367601454</v>
+        <v>0.3793775228518825</v>
       </c>
       <c r="H23">
-        <v>0.7073487052317091</v>
+        <v>0.2926101889211878</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.323017953738173</v>
+        <v>0.284951884778053</v>
       </c>
       <c r="K23">
-        <v>0.4234517358918879</v>
+        <v>1.350519555615875</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3306859814279619</v>
+        <v>0.6638522242200864</v>
       </c>
       <c r="N23">
-        <v>1.504918560764173</v>
+        <v>0.6085514941325503</v>
       </c>
       <c r="O23">
-        <v>2.562029545882041</v>
+        <v>1.366539481746287</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4017425482554131</v>
+        <v>1.166816197996155</v>
       </c>
       <c r="C24">
-        <v>0.05013958697323062</v>
+        <v>0.1280315417745328</v>
       </c>
       <c r="D24">
-        <v>0.3306497503387078</v>
+        <v>0.3489765128752111</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.225092264647948</v>
+        <v>0.7189279286349759</v>
       </c>
       <c r="G24">
-        <v>0.5849983229490618</v>
+        <v>0.3550804043231039</v>
       </c>
       <c r="H24">
-        <v>0.7126260420989894</v>
+        <v>0.2895349674567029</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3180504824528896</v>
+        <v>0.2543298481038363</v>
       </c>
       <c r="K24">
-        <v>0.3654806113422353</v>
+        <v>1.1597076537779</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3052626806035263</v>
+        <v>0.5688645871991156</v>
       </c>
       <c r="N24">
-        <v>1.52751824385367</v>
+        <v>0.6608212432795071</v>
       </c>
       <c r="O24">
-        <v>2.574330445627368</v>
+        <v>1.308086236189268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3390154454519063</v>
+        <v>0.9564207926642325</v>
       </c>
       <c r="C25">
-        <v>0.04445071153891433</v>
+        <v>0.1107103665087834</v>
       </c>
       <c r="D25">
-        <v>0.3185741192665148</v>
+        <v>0.2951296841401359</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.225296904603596</v>
+        <v>0.6651808784603261</v>
       </c>
       <c r="G25">
-        <v>0.5870994774192297</v>
+        <v>0.33228089071131</v>
       </c>
       <c r="H25">
-        <v>0.7193331838681871</v>
+        <v>0.2882147004715208</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.313277115092923</v>
+        <v>0.2228100828261077</v>
       </c>
       <c r="K25">
-        <v>0.3027941149423725</v>
+        <v>0.9545890248466264</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2781995619600579</v>
+        <v>0.467675775728452</v>
       </c>
       <c r="N25">
-        <v>1.553740884834326</v>
+        <v>0.7213163298257967</v>
       </c>
       <c r="O25">
-        <v>2.592427549177359</v>
+        <v>1.256412261451302</v>
       </c>
     </row>
   </sheetData>
